--- a/upload/excel/2505_용산초_발주서_에스에이치유통_업로드용.xlsx
+++ b/upload/excel/2505_용산초_발주서_에스에이치유통_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AH18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -751,6 +752,11 @@
       <c r="AH5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -820,6 +826,9 @@
         <is>
           <t>31</t>
         </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="7">
@@ -889,6 +898,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AI7" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -956,6 +968,9 @@
         <is>
           <t>2.5</t>
         </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="9">
@@ -1025,6 +1040,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="AI9" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1096,6 +1114,9 @@
         <is>
           <t>41</t>
         </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="11">
@@ -1165,6 +1186,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="AI11" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
@@ -1237,6 +1261,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AI12" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -1308,6 +1335,9 @@
         <is>
           <t>6.5</t>
         </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="14">
@@ -1377,6 +1407,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AI14" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -1448,6 +1481,9 @@
         <is>
           <t>5.3</t>
         </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="16">
@@ -1517,6 +1553,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AI16" t="n">
+        <v>33800</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -1589,6 +1628,9 @@
           <t>8.1</t>
         </is>
       </c>
+      <c r="AI17" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr"/>
